--- a/data-raw/fieldplayers_overall_season_2018.xlsx
+++ b/data-raw/fieldplayers_overall_season_2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="8800" yWindow="5980" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>DF</t>
   </si>
   <si>
-    <t>EstefanÃ­a Banini</t>
-  </si>
-  <si>
     <t>ar ARG</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t>sco SCO</t>
   </si>
   <si>
-    <t>Ana-Maria CrnogorÄeviÄ</t>
-  </si>
-  <si>
     <t>ch SUI</t>
   </si>
   <si>
@@ -545,9 +539,6 @@
     <t>Sydney Miramontez</t>
   </si>
   <si>
-    <t>MÃ´nica</t>
-  </si>
-  <si>
     <t>Alex Morgan</t>
   </si>
   <si>
@@ -563,9 +554,6 @@
     <t>Alyssa Naeher</t>
   </si>
   <si>
-    <t>YÅ«ki Nagasato</t>
-  </si>
-  <si>
     <t>Christine Nairn</t>
   </si>
   <si>
@@ -662,9 +650,6 @@
     <t>Amy Rodriguez</t>
   </si>
   <si>
-    <t>Raquel RodrÃ­guez</t>
-  </si>
-  <si>
     <t>cr CRC</t>
   </si>
   <si>
@@ -800,9 +785,6 @@
     <t>Erin Yenney</t>
   </si>
   <si>
-    <t>Gunnhildur Yrsa JÃ³nsdÃ³ttir</t>
-  </si>
-  <si>
     <t>is ISL</t>
   </si>
   <si>
@@ -810,6 +792,24 @@
   </si>
   <si>
     <t>McCall Zerboni</t>
+  </si>
+  <si>
+    <t>Estefanía Banini</t>
+  </si>
+  <si>
+    <t>Ana-Maria Crnogorčević</t>
+  </si>
+  <si>
+    <t>Mônica</t>
+  </si>
+  <si>
+    <t>Yūki Nagasato</t>
+  </si>
+  <si>
+    <t>Raquel Rodríguez</t>
+  </si>
+  <si>
+    <t>Gunnhildur Yrsa Jónsdóttir</t>
   </si>
 </sst>
 </file>
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P213"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1582,16 +1582,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F9" s="2">
         <v>27</v>
@@ -1632,7 +1632,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
@@ -1682,16 +1682,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F11" s="2">
         <v>36</v>
@@ -1732,7 +1732,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>31</v>
@@ -1782,7 +1782,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
@@ -1832,13 +1832,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -1882,16 +1882,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2">
         <v>26</v>
@@ -1932,7 +1932,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
@@ -1978,7 +1978,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>31</v>
@@ -2028,16 +2028,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2">
         <v>23</v>
@@ -2078,16 +2078,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F19" s="2">
         <v>21</v>
@@ -2128,7 +2128,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>31</v>
@@ -2137,7 +2137,7 @@
         <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2">
         <v>24</v>
@@ -2178,13 +2178,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>25</v>
@@ -2228,7 +2228,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>31</v>
@@ -2237,7 +2237,7 @@
         <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2">
         <v>21</v>
@@ -2276,7 +2276,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>27</v>
@@ -2285,7 +2285,7 @@
         <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2">
         <v>23</v>
@@ -2326,13 +2326,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>25</v>
@@ -2376,10 +2376,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
@@ -2426,13 +2426,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -2476,10 +2476,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -2526,7 +2526,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>24</v>
@@ -2576,7 +2576,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>24</v>
@@ -2585,7 +2585,7 @@
         <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2">
         <v>29</v>
@@ -2626,7 +2626,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>31</v>
@@ -2635,7 +2635,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" s="2">
         <v>24</v>
@@ -2676,7 +2676,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>31</v>
@@ -2685,7 +2685,7 @@
         <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" s="2">
         <v>22</v>
@@ -2726,7 +2726,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
@@ -2735,7 +2735,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="2">
         <v>24</v>
@@ -2776,7 +2776,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>31</v>
@@ -2785,7 +2785,7 @@
         <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="2">
         <v>24</v>
@@ -2826,7 +2826,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>31</v>
@@ -2876,16 +2876,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2">
         <v>28</v>
@@ -2926,10 +2926,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
@@ -2976,14 +2976,14 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2">
         <v>23</v>
@@ -3024,7 +3024,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>31</v>
@@ -3033,7 +3033,7 @@
         <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" s="2">
         <v>22</v>
@@ -3074,16 +3074,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39" s="2">
         <v>24</v>
@@ -3124,7 +3124,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>31</v>
@@ -3133,7 +3133,7 @@
         <v>28</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="2">
         <v>24</v>
@@ -3174,13 +3174,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -3224,10 +3224,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>18</v>
@@ -3274,7 +3274,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>27</v>
@@ -3283,7 +3283,7 @@
         <v>18</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F43" s="2">
         <v>26</v>
@@ -3324,7 +3324,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>31</v>
@@ -3333,7 +3333,7 @@
         <v>28</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2">
         <v>25</v>
@@ -3374,7 +3374,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>31</v>
@@ -3420,7 +3420,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>31</v>
@@ -3429,7 +3429,7 @@
         <v>28</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F46" s="2">
         <v>22</v>
@@ -3470,7 +3470,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>31</v>
@@ -3520,16 +3520,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2">
         <v>25</v>
@@ -3570,7 +3570,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>31</v>
@@ -3579,7 +3579,7 @@
         <v>34</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F49" s="2">
         <v>24</v>
@@ -3620,13 +3620,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>29</v>
@@ -3670,7 +3670,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>31</v>
@@ -3679,7 +3679,7 @@
         <v>28</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2">
         <v>26</v>
@@ -3720,7 +3720,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>31</v>
@@ -3729,7 +3729,7 @@
         <v>34</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2">
         <v>30</v>
@@ -3770,16 +3770,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2">
         <v>24</v>
@@ -3820,7 +3820,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>31</v>
@@ -3829,7 +3829,7 @@
         <v>28</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F54" s="2">
         <v>24</v>
@@ -3870,7 +3870,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>31</v>
@@ -3879,7 +3879,7 @@
         <v>28</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2">
         <v>24</v>
@@ -3920,7 +3920,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>31</v>
@@ -3929,7 +3929,7 @@
         <v>28</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2">
         <v>22</v>
@@ -3970,16 +3970,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2">
         <v>28</v>
@@ -4020,16 +4020,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F58" s="2">
         <v>25</v>
@@ -4070,7 +4070,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>31</v>
@@ -4079,7 +4079,7 @@
         <v>18</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F59" s="2">
         <v>21</v>
@@ -4120,7 +4120,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>31</v>
@@ -4129,7 +4129,7 @@
         <v>18</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F60" s="2">
         <v>22</v>
@@ -4170,7 +4170,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>31</v>
@@ -4220,7 +4220,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>31</v>
@@ -4229,7 +4229,7 @@
         <v>18</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F62" s="2">
         <v>24</v>
@@ -4270,10 +4270,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>28</v>
@@ -4320,13 +4320,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>29</v>
@@ -4370,13 +4370,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>29</v>
@@ -4420,7 +4420,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>31</v>
@@ -4470,7 +4470,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>31</v>
@@ -4520,7 +4520,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>31</v>
@@ -4570,7 +4570,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>31</v>
@@ -4579,7 +4579,7 @@
         <v>34</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2">
         <v>25</v>
@@ -4620,16 +4620,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F70" s="2">
         <v>25</v>
@@ -4670,7 +4670,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>31</v>
@@ -4679,7 +4679,7 @@
         <v>18</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2">
         <v>22</v>
@@ -4720,7 +4720,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>31</v>
@@ -4770,7 +4770,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>31</v>
@@ -4779,7 +4779,7 @@
         <v>18</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F73" s="2">
         <v>25</v>
@@ -4820,7 +4820,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>31</v>
@@ -4870,16 +4870,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F75" s="2">
         <v>25</v>
@@ -4920,16 +4920,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F76" s="2">
         <v>32</v>
@@ -4970,7 +4970,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>31</v>
@@ -4979,7 +4979,7 @@
         <v>18</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F77" s="2">
         <v>22</v>
@@ -5020,7 +5020,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>31</v>
@@ -5070,7 +5070,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>31</v>
@@ -5079,7 +5079,7 @@
         <v>18</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2">
         <v>22</v>
@@ -5120,7 +5120,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>31</v>
@@ -5129,7 +5129,7 @@
         <v>34</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F80" s="2">
         <v>24</v>
@@ -5170,7 +5170,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>31</v>
@@ -5220,13 +5220,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>19</v>
@@ -5270,7 +5270,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>31</v>
@@ -5320,10 +5320,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>18</v>
@@ -5370,16 +5370,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2">
         <v>25</v>
@@ -5420,7 +5420,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>31</v>
@@ -5429,7 +5429,7 @@
         <v>28</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F86" s="2">
         <v>28</v>
@@ -5470,7 +5470,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>31</v>
@@ -5479,7 +5479,7 @@
         <v>18</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2">
         <v>23</v>
@@ -5520,7 +5520,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
@@ -5529,7 +5529,7 @@
         <v>34</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F88" s="2">
         <v>29</v>
@@ -5570,7 +5570,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>31</v>
@@ -5620,10 +5620,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>18</v>
@@ -5670,16 +5670,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F91" s="2">
         <v>26</v>
@@ -5720,16 +5720,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F92" s="2">
         <v>26</v>
@@ -5770,7 +5770,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>31</v>
@@ -5818,7 +5818,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>31</v>
@@ -5827,7 +5827,7 @@
         <v>28</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2">
         <v>22</v>
@@ -5868,16 +5868,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F95" s="2">
         <v>28</v>
@@ -5918,13 +5918,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>22</v>
@@ -5968,7 +5968,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>31</v>
@@ -6018,16 +6018,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F98" s="2">
         <v>23</v>
@@ -6068,16 +6068,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F99" s="2">
         <v>24</v>
@@ -6118,10 +6118,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>18</v>
@@ -6168,7 +6168,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>31</v>
@@ -6218,7 +6218,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>31</v>
@@ -6268,13 +6268,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>29</v>
@@ -6318,16 +6318,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F104" s="2">
         <v>27</v>
@@ -6368,16 +6368,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F105" s="2">
         <v>33</v>
@@ -6418,7 +6418,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>31</v>
@@ -6427,7 +6427,7 @@
         <v>34</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F106" s="2">
         <v>20</v>
@@ -6468,7 +6468,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>31</v>
@@ -6477,7 +6477,7 @@
         <v>28</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F107" s="2">
         <v>24</v>
@@ -6518,7 +6518,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>31</v>
@@ -6568,7 +6568,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>31</v>
@@ -6577,7 +6577,7 @@
         <v>28</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F109" s="2">
         <v>22</v>
@@ -6618,13 +6618,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>19</v>
@@ -6668,13 +6668,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>22</v>
@@ -6718,7 +6718,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>31</v>
@@ -6727,7 +6727,7 @@
         <v>18</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F112" s="2">
         <v>27</v>
@@ -6768,7 +6768,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>31</v>
@@ -6818,16 +6818,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F114" s="2">
         <v>35</v>
@@ -6868,7 +6868,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>31</v>
@@ -6918,7 +6918,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>31</v>
@@ -6968,7 +6968,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>31</v>
@@ -6977,7 +6977,7 @@
         <v>28</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F117" s="2">
         <v>28</v>
@@ -7018,7 +7018,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
@@ -7027,7 +7027,7 @@
         <v>18</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F118" s="2">
         <v>31</v>
@@ -7068,7 +7068,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>24</v>
@@ -7077,7 +7077,7 @@
         <v>28</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F119" s="2">
         <v>33</v>
@@ -7118,16 +7118,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F120" s="2">
         <v>27</v>
@@ -7168,16 +7168,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F121" s="2">
         <v>28</v>
@@ -7218,7 +7218,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>31</v>
@@ -7227,7 +7227,7 @@
         <v>18</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F122" s="2">
         <v>24</v>
@@ -7268,7 +7268,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>31</v>
@@ -7277,7 +7277,7 @@
         <v>18</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F123" s="2">
         <v>27</v>
@@ -7318,7 +7318,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>31</v>
@@ -7368,7 +7368,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>31</v>
@@ -7377,7 +7377,7 @@
         <v>18</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2">
         <v>29</v>
@@ -7418,7 +7418,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>31</v>
@@ -7468,7 +7468,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>31</v>
@@ -7518,7 +7518,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>31</v>
@@ -7568,13 +7568,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>25</v>
@@ -7618,7 +7618,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>31</v>
@@ -7627,7 +7627,7 @@
         <v>28</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F130" s="2">
         <v>25</v>
@@ -7668,7 +7668,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>31</v>
@@ -7677,7 +7677,7 @@
         <v>34</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F131" s="2">
         <v>23</v>
@@ -7718,7 +7718,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>27</v>
@@ -7727,7 +7727,7 @@
         <v>34</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F132" s="2">
         <v>39</v>
@@ -7768,7 +7768,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>31</v>
@@ -7777,7 +7777,7 @@
         <v>18</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F133" s="2">
         <v>28</v>
@@ -7818,16 +7818,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F134" s="2">
         <v>32</v>
@@ -7868,10 +7868,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>28</v>
@@ -7918,7 +7918,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>31</v>
@@ -7968,16 +7968,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F137" s="2">
         <v>29</v>
@@ -8018,16 +8018,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F138" s="2">
         <v>30</v>
@@ -8068,7 +8068,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>31</v>
@@ -8077,7 +8077,7 @@
         <v>28</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F139" s="2">
         <v>27</v>
@@ -8118,7 +8118,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>31</v>
@@ -8127,7 +8127,7 @@
         <v>34</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F140" s="2">
         <v>23</v>
@@ -8168,7 +8168,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>31</v>
@@ -8177,7 +8177,7 @@
         <v>18</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F141" s="2">
         <v>26</v>
@@ -8218,10 +8218,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>34</v>
@@ -8268,16 +8268,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F143" s="2">
         <v>29</v>
@@ -8318,16 +8318,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F144" s="2">
         <v>33</v>
@@ -8368,16 +8368,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F145" s="2">
         <v>23</v>
@@ -8418,13 +8418,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>25</v>
@@ -8468,7 +8468,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>31</v>
@@ -8518,16 +8518,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F148" s="2">
         <v>24</v>
@@ -8568,7 +8568,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>31</v>
@@ -8618,7 +8618,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>31</v>
@@ -8627,7 +8627,7 @@
         <v>34</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F150" s="2">
         <v>24</v>
@@ -8668,7 +8668,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>24</v>
@@ -8718,7 +8718,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>27</v>
@@ -8727,7 +8727,7 @@
         <v>34</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F152" s="2">
         <v>26</v>
@@ -8768,10 +8768,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>34</v>
@@ -8818,7 +8818,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>31</v>
@@ -8827,7 +8827,7 @@
         <v>18</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F154" s="2">
         <v>29</v>
@@ -8868,7 +8868,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>31</v>
@@ -8877,7 +8877,7 @@
         <v>34</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F155" s="2">
         <v>27</v>
@@ -8918,7 +8918,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>24</v>
@@ -8968,7 +8968,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>31</v>
@@ -8977,7 +8977,7 @@
         <v>28</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F157" s="2">
         <v>23</v>
@@ -9018,7 +9018,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>31</v>
@@ -9027,7 +9027,7 @@
         <v>18</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F158" s="2">
         <v>19</v>
@@ -9068,7 +9068,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>31</v>
@@ -9118,16 +9118,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F160" s="2">
         <v>22</v>
@@ -9168,13 +9168,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>22</v>
@@ -9218,13 +9218,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>29</v>
@@ -9268,7 +9268,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>31</v>
@@ -9277,7 +9277,7 @@
         <v>18</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F163" s="2">
         <v>23</v>
@@ -9318,7 +9318,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>31</v>
@@ -9368,13 +9368,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>19</v>
@@ -9418,7 +9418,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>31</v>
@@ -9427,7 +9427,7 @@
         <v>34</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F166" s="2">
         <v>23</v>
@@ -9468,16 +9468,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F167" s="2">
         <v>30</v>
@@ -9518,10 +9518,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>18</v>
@@ -9568,16 +9568,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F169" s="2">
         <v>23</v>
@@ -9618,7 +9618,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>31</v>
@@ -9668,7 +9668,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>31</v>
@@ -9677,7 +9677,7 @@
         <v>34</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F171" s="2">
         <v>32</v>
@@ -9718,7 +9718,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>24</v>
@@ -9727,7 +9727,7 @@
         <v>28</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F172" s="2">
         <v>30</v>
@@ -9768,13 +9768,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>19</v>
@@ -9818,7 +9818,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>31</v>
@@ -9868,7 +9868,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>31</v>
@@ -9877,7 +9877,7 @@
         <v>18</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F175" s="2">
         <v>22</v>
@@ -9918,7 +9918,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>31</v>
@@ -9927,7 +9927,7 @@
         <v>34</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F176" s="2">
         <v>27</v>
@@ -9968,10 +9968,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>18</v>
@@ -10018,13 +10018,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>29</v>
@@ -10068,7 +10068,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>31</v>
@@ -10118,16 +10118,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F180" s="2">
         <v>24</v>
@@ -10168,7 +10168,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>31</v>
@@ -10177,7 +10177,7 @@
         <v>18</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F181" s="2">
         <v>24</v>
@@ -10218,16 +10218,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F182" s="2">
         <v>24</v>
@@ -10268,7 +10268,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>31</v>
@@ -10318,7 +10318,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>31</v>
@@ -10327,7 +10327,7 @@
         <v>28</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F184" s="2">
         <v>24</v>
@@ -10368,7 +10368,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>31</v>
@@ -10418,7 +10418,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>31</v>
@@ -10427,7 +10427,7 @@
         <v>28</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F186" s="2">
         <v>27</v>
@@ -10468,7 +10468,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>31</v>
@@ -10477,7 +10477,7 @@
         <v>18</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F187" s="2">
         <v>25</v>
@@ -10518,13 +10518,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C188" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>19</v>
@@ -10568,7 +10568,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>31</v>
@@ -10577,7 +10577,7 @@
         <v>28</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F189" s="2">
         <v>22</v>
@@ -10618,10 +10618,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>18</v>
@@ -10668,7 +10668,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>27</v>
@@ -10718,16 +10718,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F192" s="2">
         <v>29</v>
@@ -10768,7 +10768,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>31</v>
@@ -10818,16 +10818,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F194" s="2">
         <v>26</v>
@@ -10868,7 +10868,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>31</v>
@@ -10877,7 +10877,7 @@
         <v>18</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F195" s="2">
         <v>25</v>
@@ -10918,10 +10918,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>28</v>
@@ -10968,7 +10968,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>31</v>
@@ -10977,7 +10977,7 @@
         <v>18</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F197" s="2">
         <v>23</v>
@@ -11018,7 +11018,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>31</v>
@@ -11027,7 +11027,7 @@
         <v>28</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F198" s="2">
         <v>23</v>
@@ -11068,7 +11068,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>31</v>
@@ -11118,7 +11118,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>31</v>
@@ -11127,7 +11127,7 @@
         <v>18</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F200" s="2">
         <v>34</v>
@@ -11168,7 +11168,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>31</v>
@@ -11218,16 +11218,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F202" s="2">
         <v>24</v>
@@ -11268,13 +11268,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>22</v>
@@ -11318,7 +11318,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>31</v>
@@ -11327,7 +11327,7 @@
         <v>18</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F204" s="2">
         <v>24</v>
@@ -11368,16 +11368,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F205" s="2">
         <v>21</v>
@@ -11418,7 +11418,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>31</v>
@@ -11427,7 +11427,7 @@
         <v>34</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F206" s="2">
         <v>25</v>
@@ -11468,10 +11468,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>34</v>
@@ -11518,16 +11518,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F208" s="2">
         <v>26</v>
@@ -11568,13 +11568,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>22</v>
@@ -11618,7 +11618,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>31</v>
@@ -11627,7 +11627,7 @@
         <v>28</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F210" s="2">
         <v>25</v>
@@ -11668,16 +11668,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F211" s="2">
         <v>29</v>
@@ -11718,7 +11718,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>24</v>
@@ -11727,7 +11727,7 @@
         <v>34</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F212" s="2">
         <v>25</v>
@@ -11768,7 +11768,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>31</v>
@@ -11777,7 +11777,7 @@
         <v>28</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F213" s="2">
         <v>31</v>

--- a/data-raw/fieldplayers_overall_season_2018.xlsx
+++ b/data-raw/fieldplayers_overall_season_2018.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiatannir/Documents/nwslR/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliso\Desktop\nwslR\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA4C17B-6D8C-4731-B270-CCBA3ACAB61F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="5980" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -626,9 +627,6 @@
     <t>Margaret Purce</t>
   </si>
   <si>
-    <t>Rebecca Quinn</t>
-  </si>
-  <si>
     <t>Megan Rapinoe</t>
   </si>
   <si>
@@ -810,12 +808,15 @@
   </si>
   <si>
     <t>Gunnhildur Yrsa Jónsdóttir</t>
+  </si>
+  <si>
+    <t>Quinn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -873,6 +874,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1140,14 +1144,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P213"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
@@ -1177,7 +1181,7 @@
     <col min="30" max="30" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1327,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1477,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1577,12 +1581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
@@ -1627,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1777,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1827,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1927,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1973,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2023,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2073,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2123,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2173,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2223,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2271,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2321,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2371,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2421,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2471,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2521,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2571,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2621,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2671,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2721,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2771,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2821,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2871,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2921,12 +2925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>71</v>
@@ -2971,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3019,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3069,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3119,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3169,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3219,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3269,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3319,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3369,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3415,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3465,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3515,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3565,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3615,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3665,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3715,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3765,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3815,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3865,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3915,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3965,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4015,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4065,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4115,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4165,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4215,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4265,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4315,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4365,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4415,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4465,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4515,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4565,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4615,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4665,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4715,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4765,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4815,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4865,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4915,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4965,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5015,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5065,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5115,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5165,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5215,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5265,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5315,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5365,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5415,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5465,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5515,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5565,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5615,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5665,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5765,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5813,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5863,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5913,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5963,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -6013,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -6063,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -6113,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -6163,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -6213,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -6263,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -6313,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -6363,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6413,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6463,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -6513,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -6563,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -6663,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -6713,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -6763,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6813,7 +6817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6863,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6913,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -6963,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -7013,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -7063,7 +7067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -7113,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -7163,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -7213,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -7263,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -7313,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -7363,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -7413,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -7463,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -7513,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -7563,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -7613,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -7663,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -7713,12 +7717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>27</v>
@@ -7763,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -7813,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -7863,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -7913,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -7963,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -8013,12 +8017,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>133</v>
@@ -8063,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -8113,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -8163,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -8213,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -8263,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -8313,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -8363,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -8413,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -8463,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -8513,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -8563,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -8613,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -8663,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -8713,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -8763,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -8813,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -8863,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -8913,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -8963,7 +8967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -9013,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -9063,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -9113,12 +9117,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>24</v>
@@ -9163,12 +9167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>31</v>
@@ -9213,12 +9217,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>60</v>
@@ -9263,12 +9267,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>31</v>
@@ -9313,12 +9317,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>31</v>
@@ -9363,12 +9367,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>31</v>
@@ -9413,12 +9417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>31</v>
@@ -9463,12 +9467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>31</v>
@@ -9513,15 +9517,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>18</v>
@@ -9563,12 +9567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>31</v>
@@ -9613,12 +9617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>31</v>
@@ -9663,12 +9667,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>31</v>
@@ -9713,12 +9717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>24</v>
@@ -9763,12 +9767,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>24</v>
@@ -9813,12 +9817,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>31</v>
@@ -9863,12 +9867,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>31</v>
@@ -9913,12 +9917,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>31</v>
@@ -9963,12 +9967,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>60</v>
@@ -10013,12 +10017,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>24</v>
@@ -10063,12 +10067,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>31</v>
@@ -10113,12 +10117,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>31</v>
@@ -10163,12 +10167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>31</v>
@@ -10213,15 +10217,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>28</v>
@@ -10263,12 +10267,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>31</v>
@@ -10313,12 +10317,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>31</v>
@@ -10363,12 +10367,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>31</v>
@@ -10413,12 +10417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>31</v>
@@ -10463,12 +10467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>31</v>
@@ -10513,12 +10517,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>49</v>
@@ -10563,12 +10567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>31</v>
@@ -10613,12 +10617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>79</v>
@@ -10663,12 +10667,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>27</v>
@@ -10713,15 +10717,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>18</v>
@@ -10763,12 +10767,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>31</v>
@@ -10813,12 +10817,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>31</v>
@@ -10863,12 +10867,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>31</v>
@@ -10913,12 +10917,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>133</v>
@@ -10963,12 +10967,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>31</v>
@@ -11013,12 +11017,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>31</v>
@@ -11063,12 +11067,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>31</v>
@@ -11113,12 +11117,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>31</v>
@@ -11163,12 +11167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>31</v>
@@ -11213,12 +11217,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>49</v>
@@ -11263,12 +11267,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>60</v>
@@ -11313,12 +11317,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>31</v>
@@ -11363,12 +11367,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>31</v>
@@ -11413,12 +11417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>31</v>
@@ -11463,12 +11467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>139</v>
@@ -11513,12 +11517,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>31</v>
@@ -11563,12 +11567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>31</v>
@@ -11613,12 +11617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>31</v>
@@ -11663,15 +11667,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>28</v>
@@ -11713,12 +11717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>24</v>
@@ -11763,12 +11767,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>31</v>
